--- a/result/metrics_values/dolphin.xlsx
+++ b/result/metrics_values/dolphin.xlsx
@@ -613,12 +613,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.9829149049269e-05</t>
+          <t>4.9829149049268994e-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.2575054282823787e-05</t>
+          <t>2.2575054282823784e-05</t>
         </is>
       </c>
     </row>
